--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\projeto pessoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\Projeto-Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188C8730-E5D3-4A16-9969-9B5D8CB8B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF57069-0694-4286-8828-80F31A429B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>PROJETO INDIVIDUAL - BACKLOG</t>
   </si>
@@ -69,9 +67,6 @@
   </si>
   <si>
     <t>Utilizar banco de dados dentro da máquina virtual</t>
-  </si>
-  <si>
-    <t>HADES BROWNSER EDITION - BACKLOG</t>
   </si>
   <si>
     <t>Desenvolver mecânica básica de combate</t>
@@ -207,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,14 +227,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,301 +588,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3300CF5-4A63-4592-BC70-E1407BE78AF5}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27.6">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27.6">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\Projeto-Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\projeto pessoal\Projeto-Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF57069-0694-4286-8828-80F31A429B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5BA74-0DA9-4780-88AD-65D1E36666D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>PROJETO INDIVIDUAL - BACKLOG</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Criar o site institucional com informações gerais sobre o projeto.</t>
   </si>
   <si>
-    <t>Criar a tela de cadastro com integração ao banco de dados.</t>
-  </si>
-  <si>
     <t>Desenvolver tela de login</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>Implementar tabelas, chaves e relacionamentos no banco de dados.</t>
   </si>
   <si>
-    <t>Implementar API Web-Data-Viz</t>
-  </si>
-  <si>
-    <t>Criar API para integração de dados entre o jogo e o dashboard.</t>
-  </si>
-  <si>
     <t>Desenvolver página de dashboard</t>
   </si>
   <si>
@@ -196,13 +187,94 @@
   </si>
   <si>
     <t>Implementar inimigo chefe com maior dificuldade e recompensas únicas.</t>
+  </si>
+  <si>
+    <t>Criar burndown</t>
+  </si>
+  <si>
+    <t>Criar planilha de burndown ao backlog</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>PENDENTE</t>
+  </si>
+  <si>
+    <t>GRÁFICO DE BURNDOWN</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Criar Product Backlog</t>
+  </si>
+  <si>
+    <t>Criar o product backlogo com todos os requisitos no excel.</t>
+  </si>
+  <si>
+    <t>Criar a tela de cadastro com autenticações .</t>
+  </si>
+  <si>
+    <t>Implementar API Web-Data-Viz para inserir dados</t>
+  </si>
+  <si>
+    <t>Implementar API Web-Data-Viz para requisitar dados</t>
+  </si>
+  <si>
+    <t>Utilizar a API Web-Data-Viz para requisitar os dados do banco de dados.</t>
+  </si>
+  <si>
+    <t>Utilizar a API Web-Data-Viz para inserir o dados no banco de dados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +282,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -246,20 +351,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -269,6 +405,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2035735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93383</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>682498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="I recreated the Hades icon in Blender : r/blender">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE168EA-CC58-44A0-94E6-02EC478A253A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2035735" y="28016"/>
+          <a:ext cx="653677" cy="654482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,294 +790,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3300CF5-4A63-4592-BC70-E1407BE78AF5}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="4">
+        <f>IF(D3="P",5,IF(D3="PP",3,IF(D3="M",8,IF(D3="G",13,IF(D3="GG",21,"")))))</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4">
+        <f>IF(D4="P",5,IF(D4="PP",3,IF(D4="M",8,IF(D4="G",13,IF(D4="GG",21,"")))))</f>
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E28" si="0">IF(D5="P",5,IF(D5="PP",3,IF(D5="M",8,IF(D5="G",13,IF(D5="GG",21,"")))))</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17">
+        <f>SUM(E2:E189)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27.6">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27.6">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27.6">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
+      <c r="F28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F2:F1048576 G2:H3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PENDENTE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\projeto pessoal\Projeto-Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\Projeto-Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5BA74-0DA9-4780-88AD-65D1E36666D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2808785B-F549-4E95-A8A5-55B35A08F9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,14 +365,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,8 +417,8 @@
       <xdr:rowOff>28016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>93383</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2711824</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>682498</xdr:rowOff>
     </xdr:to>
@@ -451,7 +451,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2035735" y="28016"/>
-          <a:ext cx="653677" cy="654482"/>
+          <a:ext cx="676089" cy="654482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,58 +792,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3300CF5-4A63-4592-BC70-E1407BE78AF5}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="74.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" ht="54.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="27.6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -968,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -993,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="27.6">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="27.6">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="27.6">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="27.6">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="27.6">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\Projeto-Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\projeto pessoal\Projeto-Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2808785B-F549-4E95-A8A5-55B35A08F9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18711A8-3271-4BB4-8EC0-58A7668836C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t>PROJETO INDIVIDUAL - BACKLOG</t>
   </si>
@@ -268,13 +268,34 @@
   </si>
   <si>
     <t>Utilizar a API Web-Data-Viz para inserir o dados no banco de dados.</t>
+  </si>
+  <si>
+    <t>Desenvolver Protótipo do Site instucional</t>
+  </si>
+  <si>
+    <t>Desenvolver Protótipo da tela de cadastro e login</t>
+  </si>
+  <si>
+    <t>Desenvolver Protótipo "Sobre mim'</t>
+  </si>
+  <si>
+    <t>Desenvolver o protótipo do site institucional dentro do aplicativo figma</t>
+  </si>
+  <si>
+    <t>Desenvolver o protótipo da tela de login e cadastro dentro do aplicativo figma</t>
+  </si>
+  <si>
+    <t>Desenvolver o protótipo da tela de "Sobre mim" dentro do aplicativo figma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,7 +439,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2711824</xdr:colOff>
+      <xdr:colOff>2597524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>682498</xdr:rowOff>
     </xdr:to>
@@ -790,22 +811,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3300CF5-4A63-4592-BC70-E1407BE78AF5}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54.75" customHeight="1">
+    <row r="1" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -817,7 +838,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="27.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -843,7 +864,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -868,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -893,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -907,7 +928,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E28" si="0">IF(D5="P",5,IF(D5="PP",3,IF(D5="M",8,IF(D5="G",13,IF(D5="GG",21,"")))))</f>
+        <f t="shared" ref="E5:E31" si="0">IF(D5="P",5,IF(D5="PP",3,IF(D5="M",8,IF(D5="G",13,IF(D5="GG",21,"")))))</f>
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -918,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -943,12 +964,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -965,18 +986,18 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>58</v>
@@ -990,100 +1011,103 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="27.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>60</v>
@@ -1093,120 +1117,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="27.6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="27.6">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1221,209 +1239,221 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17">
-        <f>SUM(E2:E189)</f>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="27.6">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>67</v>
+      </c>
+      <c r="R20">
+        <f>SUM(E2:E192)</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
@@ -1443,22 +1473,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>60</v>
@@ -1468,22 +1498,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>60</v>
@@ -1493,15 +1523,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>56</v>
@@ -1515,6 +1545,81 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1522,7 +1627,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F1048576 G2:H3">
+  <conditionalFormatting sqref="G2:H3 F2:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PENDENTE"</formula>
     </cfRule>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\projeto pessoal\Projeto-Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18711A8-3271-4BB4-8EC0-58A7668836C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07B7136-2A33-4CA1-AA23-61A5BE84397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31297882-7B3D-4F90-B3D3-D07F0AF0B13D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>PROJETO INDIVIDUAL - BACKLOG</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FINALIZADO</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -813,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3300CF5-4A63-4592-BC70-E1407BE78AF5}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +845,7 @@
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -882,14 +905,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -906,15 +931,17 @@
         <f>IF(D4="P",5,IF(D4="PP",3,IF(D4="M",8,IF(D4="G",13,IF(D4="GG",21,"")))))</f>
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -931,15 +958,17 @@
         <f t="shared" ref="E5:E31" si="0">IF(D5="P",5,IF(D5="PP",3,IF(D5="M",8,IF(D5="G",13,IF(D5="GG",21,"")))))</f>
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -956,15 +985,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
       <c r="H6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -981,10 +1012,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
@@ -1006,15 +1039,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1031,10 +1066,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
@@ -1042,7 +1079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1059,15 +1096,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
       <c r="H10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1084,15 +1123,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1109,15 +1150,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
       <c r="H12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1134,15 +1177,17 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1159,10 +1204,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
@@ -1184,10 +1231,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
       <c r="H15" s="4">
         <v>2</v>
       </c>
@@ -1209,15 +1258,17 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
       <c r="H16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1234,10 +1285,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
       <c r="H17" s="4">
         <v>2</v>
       </c>
@@ -1259,10 +1312,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
       <c r="H18" s="4">
         <v>3</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1287,8 +1342,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>60</v>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
@@ -1315,10 +1370,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
@@ -1347,10 +1404,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
       <c r="H21" s="4">
         <v>1</v>
       </c>
@@ -1375,10 +1434,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
       <c r="H22" s="4">
         <v>2</v>
       </c>
@@ -1389,7 +1450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1406,10 +1467,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
       <c r="H23" s="4">
         <v>2</v>
       </c>
@@ -1437,10 +1500,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
       <c r="H24" s="4">
         <v>2</v>
       </c>
@@ -1465,15 +1530,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="F25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1490,15 +1557,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="F26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,15 +1584,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1540,15 +1611,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,15 +1638,17 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,15 +1665,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1615,10 +1692,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
       <c r="H31" s="4">
         <v>3</v>
       </c>
@@ -1628,8 +1707,13 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:H3 F2:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PENDENTE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"PENDENTE"</formula>
+      <formula>"FINALIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
